--- a/jrqc/common/pdf/contact/moushikomi.xlsx
+++ b/jrqc/common/pdf/contact/moushikomi.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyData\057028\Desktop\0109業務紹介（一部）他\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Fil-001\share\023_技術管理部\業務管理フォルダ\04_書籍販売\★2024年度\取扱い書籍等カタログ・申込書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9483E8-8926-4C6E-93DA-B3A64892D742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9386D23D-BF6F-454A-A3A3-0A71AFAC4230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9135" yWindow="210" windowWidth="19320" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注文書" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">注文書!$A$1:$N$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">注文書!$A$1:$N$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>会社名</t>
     <rPh sb="0" eb="3">
@@ -89,13 +89,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>金額</t>
-    <rPh sb="0" eb="2">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>各種仕様書等申込書</t>
     <rPh sb="0" eb="2">
       <t>カクシュ</t>
@@ -116,27 +109,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>書籍／商品名</t>
-    <rPh sb="0" eb="2">
-      <t>ショセキ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>工務関係従事員触車事故防止要領</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>お問合せ・ご注文：</t>
-    <rPh sb="1" eb="3">
-      <t>トイアワ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チュウモン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -261,111 +234,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>また書籍類改訂の際は、ご記入いただいたメールアドレスにご案内をお送りさせていただきます。</t>
-    <rPh sb="2" eb="5">
-      <t>ショセキルイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カイテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>鉄道基礎教育修了証ステッカー</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF3300"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（赤）</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>テツドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キソ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キョウイク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>シュウリョウショウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>鉄道基礎教育修了証ステッカー</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（青）</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>テツドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キソ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キョウイク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>シュウリョウショウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>アオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>※2</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -406,10 +274,6 @@
     <rPh sb="0" eb="1">
       <t>ニチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>E-mail：</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -521,16 +385,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>No.1～No.3をご購入の際は電子データの受け渡しの際に必要ですので必ずご記入をお願いします。</t>
-    <rPh sb="27" eb="28">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>価格（税込）</t>
     <rPh sb="0" eb="2">
       <t>カカク</t>
@@ -572,68 +426,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【ステッカー・テープ】</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>発送手数料を頂戴いたします</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（レターパックプラス　520円）</t>
-    </r>
-    <rPh sb="0" eb="5">
-      <t>ハッソウテスウリョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チョウダイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>申込日：</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2023年4月1日現在</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ゲンザイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>【電子書籍】電子データでの販売　</t>
-    <rPh sb="1" eb="3">
-      <t>デンシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショセキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>デンシ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハンバイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -655,26 +448,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>No.1～No.3の書籍は2023年4月1日改訂</t>
-    <rPh sb="10" eb="12">
-      <t>ショセキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
+    <t>order@jrqc.co.jp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お問合せ・ご注文はこちらから ▶▶▶</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2024年4月1日現在</t>
+    <rPh sb="4" eb="5">
       <t>ネン</t>
     </rPh>
-    <rPh sb="19" eb="20">
+    <rPh sb="6" eb="7">
       <t>ガツ</t>
     </rPh>
-    <rPh sb="21" eb="22">
+    <rPh sb="8" eb="9">
       <t>ニチ</t>
     </rPh>
-    <rPh sb="22" eb="24">
-      <t>カイテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>order@jrqc.co.jp</t>
+    <rPh sb="9" eb="11">
+      <t>ゲンザイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -690,10 +484,168 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>（青）</t>
+      <t xml:space="preserve"> [青]</t>
     </r>
-    <rPh sb="7" eb="9">
-      <t>ネンド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>鉄道基礎教育修了証ステッカー</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF3300"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[赤]</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>テツドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シュウリョウショウアカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>鉄道基礎教育修了証ステッカー</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[青]</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>テツドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シュウリョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金額（税込）</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【 ステッカー・テープ 】　別途送料（レターパックライト370円）を頂戴いたします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【 書籍（電子データ）】　2024年4月1日改訂版</t>
+    <rPh sb="2" eb="4">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.1～No.3をご購入の際、電子データの受け渡しの際に必要ですので必ずご記入をお願いします。</t>
+    <rPh sb="27" eb="28">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>送料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（ご注文内容によっては、レターパックプラス 520円 で発送させていただきます）</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -705,7 +657,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,14 +719,6 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0000CC"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -844,20 +788,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -883,8 +813,41 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.5"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -910,7 +873,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1171,6 +1134,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1179,14 +1159,14 @@
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1238,9 +1218,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1250,13 +1227,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1268,18 +1242,123 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1313,19 +1392,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -1336,87 +1403,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1938,8 +1924,8 @@
   </sheetPr>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:N19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1962,505 +1948,501 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
+      <c r="A2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
-        <v>42</v>
+      <c r="A3" s="24" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H4" s="3" t="s">
-        <v>41</v>
+      <c r="H4" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I4" s="9">
         <v>2024</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
-      <c r="N6" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="20"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="37"/>
+      <c r="K7" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="24">
+      <c r="A9" s="22">
         <v>1</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
+      <c r="B9" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="7">
         <v>5500</v>
       </c>
       <c r="I9" s="15"/>
-      <c r="J9" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="30" t="str">
+      <c r="J9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="49" t="str">
         <f>IF(I9=0,"",H9*I9)</f>
         <v/>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
     </row>
     <row r="10" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24">
+      <c r="A10" s="22">
         <v>2</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
+      <c r="B10" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="7">
         <v>1100</v>
       </c>
       <c r="I10" s="15"/>
-      <c r="J10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="30" t="str">
+      <c r="J10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="49" t="str">
         <f>IF(I10=0,"",H10*I10)</f>
         <v/>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
     </row>
     <row r="11" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24">
+      <c r="A11" s="22">
         <v>3</v>
       </c>
-      <c r="B11" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
+      <c r="B11" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="7">
         <v>1760</v>
       </c>
       <c r="I11" s="15"/>
-      <c r="J11" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="30" t="str">
+      <c r="J11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="49" t="str">
         <f t="shared" ref="K11" si="0">IF(I11=0,"",H11*I11)</f>
         <v/>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="20"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="53">
+      <c r="A13" s="57">
         <v>4</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="74" t="s">
-        <v>33</v>
+      <c r="B13" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>26</v>
       </c>
       <c r="H13" s="8">
         <v>550</v>
       </c>
       <c r="I13" s="15"/>
-      <c r="J13" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="30" t="str">
+      <c r="J13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="49" t="str">
         <f>IF(I13=0,"",H13*I13)</f>
         <v/>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
     </row>
     <row r="14" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="75"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="55"/>
       <c r="H14" s="8">
         <v>550</v>
       </c>
       <c r="I14" s="15"/>
-      <c r="J14" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="30" t="str">
+      <c r="J14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="49" t="str">
         <f>IF(I14=0,"",H14*I14)</f>
         <v/>
       </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
     </row>
     <row r="15" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24">
+      <c r="A15" s="22">
         <v>5</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="76"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="8">
         <v>275</v>
       </c>
       <c r="I15" s="15"/>
-      <c r="J15" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="30" t="str">
+      <c r="J15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="49" t="str">
         <f t="shared" ref="K15" si="1">IF(I15=0,"",H15*I15)</f>
         <v/>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
     </row>
     <row r="16" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
-      <c r="B16" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="30" t="str">
+      <c r="A16" s="29"/>
+      <c r="B16" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="49" t="str">
         <f>IF(OR(I13&gt;0,I14&gt;0,I15&gt;0),370,"")</f>
         <v/>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
     </row>
     <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
+      <c r="A17" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="27" t="s">
-        <v>47</v>
-      </c>
+      <c r="D17" s="25"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
       <c r="H17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="20">
         <f>SUM(I9:I15)</f>
         <v>0</v>
       </c>
       <c r="J17" s="16"/>
-      <c r="K17" s="72" t="str">
+      <c r="K17" s="50" t="str">
         <f>IF(I17&gt;0,SUM(K9:K16),"")</f>
         <v/>
       </c>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
     </row>
     <row r="18" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="64"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="73"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="41"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="67"/>
+        <v>9</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="74"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="52"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="38"/>
+    </row>
+    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="52"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="75"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="47"/>
+    </row>
+    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="45"/>
-    </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="70"/>
-    </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="34" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="49"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="78"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="49"/>
+      <c r="D25" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="78"/>
     </row>
     <row r="26" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="33"/>
-    </row>
-    <row r="27" spans="1:14" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="28"/>
+      <c r="D26" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="66"/>
+    </row>
+    <row r="27" spans="1:14" s="27" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="B28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -2470,7 +2452,7 @@
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="1:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -2482,70 +2464,33 @@
       <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
+      <c r="E30" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
     </row>
     <row r="31" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I32" s="3"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-    </row>
-    <row r="33" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I33" s="3"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
+    <row r="33" spans="5:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="C19:N19"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="A24:B26"/>
@@ -2560,27 +2505,55 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="D24:N24"/>
     <mergeCell ref="D25:N25"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
     <dataValidation imeMode="fullKatakana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:N21" xr:uid="{DCB7326C-C1B4-4F92-8441-EAF1D9A5D5E7}"/>
     <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:F21 C23:F23 I23:N23" xr:uid="{A1611EB3-FADD-4E8C-96D2-6EC9882B1012}"/>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="J30:M30" r:id="rId1" display="te.tanaka@jrqc.co.jp" xr:uid="{A5807C78-CD1F-4532-A69E-CB35EA99CD57}"/>
-    <hyperlink ref="J30" r:id="rId2" display="y.tsujioka@jrqc.co.jp" xr:uid="{FB5FD3EE-5298-4C73-B294-9767DFB57129}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2050" r:id="rId6" name="Check Box 2">
+            <control shapeId="2050" r:id="rId4" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
                 <anchor moveWithCells="1">
                   <from>
@@ -2602,7 +2575,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2051" r:id="rId7" name="Check Box 3">
+            <control shapeId="2051" r:id="rId5" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
                 <anchor moveWithCells="1">
                   <from>
@@ -2624,7 +2597,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2054" r:id="rId8" name="Check Box 6">
+            <control shapeId="2054" r:id="rId6" name="Check Box 6">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
                 <anchor moveWithCells="1">
                   <from>
